--- a/CreateDB_NC/InputData/FragilityCurvesData/SpecialLocationFutureTech.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/SpecialLocationFutureTech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\FragilityCurvesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA1F48F-4BAC-440C-AC59-270C495496E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E85D7-DE5C-43B0-BC26-96D7B2F4CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
-    <t>Transmission_Interregional</t>
-  </si>
-  <si>
-    <t>LandWind_New_C8</t>
-  </si>
-  <si>
-    <t>OffshoreWind_New_C6</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -88,6 +79,15 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>TRANSMISSION_INTERREGIONAL</t>
+  </si>
+  <si>
+    <t>WIND-OFFSHORE-C6_NEW</t>
+  </si>
+  <si>
+    <t>WIND-LAND-C8_NEW</t>
   </si>
 </sst>
 </file>
@@ -428,125 +428,125 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/CreateDB_NC/InputData/FragilityCurvesData/SpecialLocationFutureTech.xlsx
+++ b/CreateDB_NC/InputData/FragilityCurvesData/SpecialLocationFutureTech.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaduraes\Desktop\victor\TemoaHurricane_V2\CreateDB_NC\InputData\FragilityCurvesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E85D7-DE5C-43B0-BC26-96D7B2F4CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Region</t>
   </si>
@@ -88,12 +87,15 @@
   </si>
   <si>
     <t>WIND-LAND-C8_NEW</t>
+  </si>
+  <si>
+    <t>OCEAN_CURRENT_NEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,22 +426,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403AAC54-22D7-42C6-84BF-5B756562A678}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -461,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -472,7 +474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -483,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -494,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -516,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -527,7 +529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -538,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -547,6 +549,17 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
